--- a/Assets/Tables/Excel/Item.xlsx
+++ b/Assets/Tables/Excel/Item.xlsx
@@ -170,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,19 +183,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,16 +377,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="24.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,30 +401,30 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -450,15 +441,17 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -496,36 +489,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Assets/Tables/Excel/Item.xlsx
+++ b/Assets/Tables/Excel/Item.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t xml:space="preserve">Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_WEAPON_ONEHAND_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITEM_WEAPON_ONEHAND_DESC_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_weapon_onehand_002</t>
   </si>
   <si>
     <t xml:space="preserve">XXX / YY / ZZZZ</t>
@@ -377,7 +386,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,9 +458,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="1" t="n">
+        <v>10101002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
@@ -495,31 +519,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Tables/Excel/Item.xlsx
+++ b/Assets/Tables/Excel/Item.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">sprite</t>
   </si>
   <si>
+    <t xml:space="preserve">stackable</t>
+  </si>
+  <si>
     <t xml:space="preserve">prefab</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t xml:space="preserve">string</t>
   </si>
   <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enum&lt;ItemType&gt;</t>
   </si>
   <si>
@@ -57,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">item_weapon_onehand_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
   </si>
   <si>
     <t xml:space="preserve">Weapon</t>
@@ -383,18 +392,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="24.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,25 +427,31 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,19 +459,22 @@
         <v>10101001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,19 +482,22 @@
         <v>10101002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,31 +542,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
